--- a/data/input/absenteeism_data_38.xlsx
+++ b/data/input/absenteeism_data_38.xlsx
@@ -476,16 +476,16 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>98968</v>
+        <v>24988</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Sarah Caldeira</t>
+          <t>Gustavo Cunha</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -494,22 +494,22 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45100</v>
+        <v>45094</v>
       </c>
       <c r="G2" t="n">
-        <v>10323.35</v>
+        <v>9859.77</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>97160</v>
+        <v>10529</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Marcelo Viana</t>
+          <t>Srta. Ana Júlia Nascimento</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -519,200 +519,200 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45095</v>
+        <v>45096</v>
       </c>
       <c r="G3" t="n">
-        <v>11497.35</v>
+        <v>11151.22</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>92406</v>
+        <v>43960</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Maria Eduarda Novaes</t>
+          <t>Dr. Rafael Barbosa</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E4" t="n">
         <v>6</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45085</v>
+        <v>45096</v>
       </c>
       <c r="G4" t="n">
-        <v>5530.39</v>
+        <v>4421.45</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>47088</v>
+        <v>93301</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Mariana Duarte</t>
+          <t>Diogo Silveira</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45085</v>
+        <v>45100</v>
       </c>
       <c r="G5" t="n">
-        <v>11550.95</v>
+        <v>4204.43</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>47553</v>
+        <v>36048</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Bruna Azevedo</t>
+          <t>Olivia Carvalho</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E6" t="n">
         <v>7</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45085</v>
+        <v>45084</v>
       </c>
       <c r="G6" t="n">
-        <v>12458.92</v>
+        <v>3845.98</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>64689</v>
+        <v>82190</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Sra. Larissa Farias</t>
+          <t>Ana Luiza da Paz</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E7" t="n">
         <v>2</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45098</v>
+        <v>45097</v>
       </c>
       <c r="G7" t="n">
-        <v>4229.83</v>
+        <v>8464.85</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>35807</v>
+        <v>58975</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Enzo Gabriel Rodrigues</t>
+          <t>Vitória Silva</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45097</v>
+        <v>45084</v>
       </c>
       <c r="G8" t="n">
-        <v>8658.17</v>
+        <v>3392.63</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>57576</v>
+        <v>67827</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Elisa Melo</t>
+          <t>Raquel Alves</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45089</v>
+        <v>45085</v>
       </c>
       <c r="G9" t="n">
-        <v>11031.22</v>
+        <v>12451.67</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>69572</v>
+        <v>8594</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Srta. Sophie Fernandes</t>
+          <t>Bruna Araújo</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -722,46 +722,46 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45080</v>
+        <v>45106</v>
       </c>
       <c r="G10" t="n">
-        <v>9132.059999999999</v>
+        <v>10587.23</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>42478</v>
+        <v>64825</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Maria Sophia Mendes</t>
+          <t>Melissa Rezende</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45087</v>
+        <v>45101</v>
       </c>
       <c r="G11" t="n">
-        <v>6101.89</v>
+        <v>11966.12</v>
       </c>
     </row>
   </sheetData>
